--- a/StructureDefinition-registro-hosp.xlsx
+++ b/StructureDefinition-registro-hosp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T16:02:56-04:00</t>
+    <t>2023-07-21T15:33:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-registro-hosp.xlsx
+++ b/StructureDefinition-registro-hosp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T15:33:08-04:00</t>
+    <t>2023-07-24T10:24:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-registro-hosp.xlsx
+++ b/StructureDefinition-registro-hosp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-24T10:24:09-04:00</t>
+    <t>2023-07-24T11:34:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
